--- a/Tables/Delay_table.xlsx
+++ b/Tables/Delay_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/MultiGridAnalysisMesytec/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E80EF1D-1733-7A40-A964-29BC44BF2B60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{88DBB460-83AE-C147-9461-614EC2B4BCED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="0" windowWidth="20460" windowHeight="18000" xr2:uid="{0CDE5C83-BE9F-2B47-BEFB-1EA95FA62CE1}"/>
+    <workbookView xWindow="4560" yWindow="2600" windowWidth="20460" windowHeight="16560" xr2:uid="{0CDE5C83-BE9F-2B47-BEFB-1EA95FA62CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,294 +378,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545A4867-7DB4-034A-BDEB-2FE3A45AF9DE}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A2:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>41224</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>3</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>33659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>29150</v>
+        <v>41224</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>26072</v>
+        <v>33659</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>23801</v>
+        <v>29150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>22035</v>
+        <v>26072</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>20612</v>
+        <v>23801</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>19433</v>
+        <v>22035</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>18436</v>
+        <v>20612</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>16830</v>
+        <v>19433</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>15581</v>
+        <v>18436</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>14575</v>
+        <v>16830</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>13741</v>
+        <v>15581</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>13036</v>
+        <v>14575</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>13741</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>13036</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>80</v>
-      </c>
-      <c r="B21">
-        <v>6518</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>6518</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>120</v>
-      </c>
-      <c r="B24">
-        <v>5322</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>160</v>
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <v>5322</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>225</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>275</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>300</v>
-      </c>
-      <c r="B32">
-        <v>3366</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>600</v>
-      </c>
-      <c r="B33">
-        <v>2380</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="B34">
-        <v>1943</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="B35">
-        <v>1843</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="B36">
-        <v>2915</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B37">
-        <v>2607</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="B38">
-        <v>2204</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="B39">
-        <v>2061</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
+        <v>700</v>
+      </c>
+      <c r="B40">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>800</v>
+      </c>
+      <c r="B41">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>2000</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>1304</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
@@ -694,6 +692,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
